--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Eosinophilic esophagitis_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Eosinophilic esophagitis_gen_overall.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Dysphagia, particularly for solids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia is a common symptom in patients with Eosinophilic esophagitis due to inflammation and narrowing of the esophagus.</t>
+          <t>Dysphagia, especially for solids, is a common symptom in Eosinophilic esophagitis due to esophageal narrowing and inflammation.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of allergic history</t>
+          <t>Absence of dysphagia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A lack of personal or family history of allergies makes Eosinophilic esophagitis less likely, as it is often associated with atopy.</t>
+          <t>The absence of dysphagia makes Eosinophilic esophagitis less likely, as dysphagia is a common symptom.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Food impaction</t>
+          <t>History of food impaction</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Food impaction occurs frequently in Eosinophilic esophagitis as a result of esophageal strictures caused by eosinophilic inflammation.</t>
+          <t>Food impaction is a frequent occurrence in Eosinophilic esophagitis due to esophageal strictures and rings.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal swallowing function without difficulty</t>
+          <t>No history of food impaction</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Normal swallowing function suggests that there is no esophageal obstruction or inflammation, which would be expected in Eosinophilic esophagitis.</t>
+          <t>Without a history of food impaction, the likelihood of Eosinophilic esophagitis decreases, as this is a typical symptom.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chest pain related to swallowing</t>
+          <t>Chest pain not related to heartburn</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chest pain during swallowing can indicate esophageal inflammation, which is characteristic of Eosinophilic esophagitis.</t>
+          <t>Chest pain that is not related to heartburn can be indicative of Eosinophilic esophagitis due to esophageal inflammation.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of food allergies</t>
+          <t>Heartburn as the primary symptom</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of food allergies reduces the likelihood of Eosinophilic esophagitis, which is often triggered by specific food allergens.</t>
+          <t>Heartburn as the primary symptom is more indicative of gastroesophageal reflux disease (GERD) than Eosinophilic esophagitis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of atopic conditions (e.g., asthma, allergic rhinitis)</t>
+          <t>History of atopic conditions</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eosinophilic esophagitis is often associated with other atopic conditions, suggesting a common underlying allergic or immune response.</t>
+          <t>A history of atopic conditions such as asthma, eczema, or allergic rhinitis is common in patients with Eosinophilic esophagitis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Symptoms improving with antacids</t>
+          <t>No history of atopic conditions</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Improvement of symptoms with antacids suggests a diagnosis of gastroesophageal reflux disease (GERD) rather than Eosinophilic esophagitis.</t>
+          <t>The absence of atopic conditions reduces the likelihood of Eosinophilic esophagitis, which is often associated with atopy.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Symptoms worsening with specific foods</t>
+          <t>Intermittent vomiting</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Symptoms that correlate with the ingestion of certain foods can indicate an allergic response, which is a hallmark of Eosinophilic esophagitis.</t>
+          <t>Intermittent vomiting can occur in Eosinophilic esophagitis due to esophageal dysfunction and irritation.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lack of eosinophilia in peripheral blood</t>
+          <t>Consistent relief with antacids</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Eosinophilia in peripheral blood is often absent in Eosinophilic esophagitis, making its presence a strong indicator against the diagnosis.</t>
+          <t>Consistent relief with antacids suggests GERD rather than Eosinophilic esophagitis, which is less responsive to antacids.</t>
         </is>
       </c>
     </row>
@@ -613,22 +613,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of atopic conditions such as asthma or allergic rhinitis</t>
+          <t>History of atopic conditions such as asthma, allergic rhinitis, or eczema</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Atopic conditions are commonly associated with Eosinophilic esophagitis, indicating a predisposition to allergic responses.</t>
+          <t>Eosinophilic esophagitis is often associated with other atopic diseases, suggesting a shared allergic or immune-mediated mechanism.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of allergic conditions or food allergies</t>
+          <t>Long-term use of PPIs with complete symptom resolution</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of atopic conditions or food allergies significantly reduces the likelihood of Eosinophilic esophagitis.</t>
+          <t>Complete symptom resolution with PPIs suggests gastroesophageal reflux disease rather than eosinophilic esophagitis, which often shows partial or no response.</t>
         </is>
       </c>
     </row>
@@ -640,83 +640,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Food allergies are a significant risk factor for Eosinophilic esophagitis, as they can trigger eosinophilic inflammation in the esophagus.</t>
+          <t>Food allergies are commonly linked with eosinophilic esophagitis, as dietary antigens can trigger eosinophilic infiltration in the esophagus.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Successful treatment of GERD with proton pump inhibitors</t>
+          <t>No history of atopic diseases</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>If GERD symptoms resolve with standard treatment, it suggests that Eosinophilic esophagitis is less likely.</t>
+          <t>The absence of atopic conditions reduces the likelihood of eosinophilic esophagitis, which is commonly associated with such conditions.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of gastroesophageal reflux disease (GERD) treatment without symptom resolution</t>
+          <t>Family history of eosinophilic esophagitis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patients with Eosinophilic esophagitis often have GERD-like symptoms that do not improve with standard GERD treatments, suggesting an alternative diagnosis.</t>
+          <t>A family history suggests a genetic predisposition to eosinophilic esophagitis, increasing the likelihood of the condition.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No previous endoscopic evaluations showing eosinophilic infiltration</t>
+          <t>No family history of eosinophilic esophagitis or atopic conditions</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The lack of eosinophilic infiltration in endoscopic findings argues against the diagnosis of Eosinophilic esophagitis.</t>
+          <t>A lack of family history decreases the probability of a genetic predisposition to eosinophilic esophagitis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Prior endoscopic findings showing eosinophilic infiltration</t>
+          <t>Use of proton pump inhibitors (PPIs) with partial or no response</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Histological evidence of eosinophils in the esophagus is a definitive indicator of Eosinophilic esophagitis.</t>
+          <t>Eosinophilic esophagitis may not fully respond to PPIs, unlike gastroesophageal reflux disease, which is often PPI-responsive.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No family history of Eosinophilic esophagitis or related allergic conditions</t>
+          <t>History of esophageal motility disorders</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A lack of familial cases decreases the likelihood of an inherited predisposition to Eosinophilic esophagitis.</t>
+          <t>Esophageal motility disorders can mimic symptoms of eosinophilic esophagitis but are distinct conditions with different pathophysiology.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Family history of Eosinophilic esophagitis or related allergic conditions</t>
+          <t>History of esophageal dilation procedures</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A familial predisposition can increase the likelihood of developing Eosinophilic esophagitis, supporting the diagnosis.</t>
+          <t>Recurrent esophageal strictures requiring dilation are more common in eosinophilic esophagitis due to chronic inflammation and fibrosis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No history of dysphagia or food impaction</t>
+          <t>History of non-allergic esophageal conditions such as Barrett's esophagus</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of these symptoms, which are common in Eosinophilic esophagitis, suggests that the condition is unlikely.</t>
+          <t>Conditions like Barrett's esophagus are not typically associated with eosinophilic esophagitis and suggest alternative diagnoses.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Family history of atopic diseases</t>
+          <t>Family history of atopic conditions</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eosinophilic esophagitis is often associated with a family history of atopic conditions such as asthma, allergic rhinitis, or eczema, indicating a genetic predisposition.</t>
+          <t>Eosinophilic esophagitis is often associated with atopic conditions such as asthma, allergic rhinitis, and eczema, which can run in families.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No family history of atopic diseases</t>
+          <t>No family history of atopic conditions</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of a family history of atopic conditions suggests a lower likelihood of Eosinophilic esophagitis, as genetic predisposition plays a significant role.</t>
+          <t>The absence of atopic conditions in the family reduces the likelihood of eosinophilic esophagitis, which is often associated with such conditions.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Personal history of allergies or asthma</t>
+          <t>Personal history of allergies</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Individuals with Eosinophilic esophagitis frequently have a personal history of allergic conditions, which supports the diagnosis due to the underlying allergic mechanism.</t>
+          <t>Individuals with a personal history of allergies are more likely to develop eosinophilic esophagitis due to shared immunological pathways.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No personal history of allergies or asthma</t>
+          <t>No personal history of allergies</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lack of personal history of allergic conditions indicates a lower risk for Eosinophilic esophagitis, as it is often associated with such histories.</t>
+          <t>Without a personal history of allergies, the likelihood of eosinophilic esophagitis decreases, as it is commonly linked with allergic conditions.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dietary habits that include common allergens</t>
+          <t>Family history of eosinophilic esophagitis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Consumption of foods known to trigger allergic reactions, such as dairy, wheat, or soy, can increase the likelihood of developing Eosinophilic esophagitis.</t>
+          <t>A direct family history of eosinophilic esophagitis significantly increases the likelihood of the condition due to genetic predisposition.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dietary habits free from common allergens</t>
+          <t>Rural living environment</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A diet that avoids known allergens reduces the likelihood of developing Eosinophilic esophagitis, as exposure to these foods is a contributing factor.</t>
+          <t>Living in a rural environment is associated with lower rates of allergic diseases, including eosinophilic esophagitis, due to different environmental exposures.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Participation in activities with high allergen exposure</t>
+          <t>Living in an urban environment</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Engagement in activities that increase exposure to allergens, such as pet ownership or living in a high pollen area, can correlate with a higher incidence of Eosinophilic esophagitis.</t>
+          <t>Urban environments have been associated with higher rates of allergic diseases, including eosinophilic esophagitis, possibly due to environmental factors.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Limited exposure to allergens in the environment</t>
+          <t>Female gender</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Living in an environment with minimal allergen exposure, such as low pollen areas or no pets, decreases the risk of Eosinophilic esophagitis.</t>
+          <t>Eosinophilic esophagitis is less common in females, making the diagnosis less likely in this gender.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of other allergic conditions in childhood</t>
+          <t>Male gender</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A history of other allergic conditions during childhood, such as food allergies or eczema, is commonly seen in patients with Eosinophilic esophagitis, supporting the diagnosis.</t>
+          <t>Eosinophilic esophagitis is more common in males, suggesting a gender-related predisposition.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No history of other allergic conditions</t>
+          <t>No family history of eosinophilic esophagitis</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of other allergic conditions suggests a lower likelihood of Eosinophilic esophagitis, as it is often seen in conjunction with other allergies.</t>
+          <t>The absence of a family history of eosinophilic esophagitis reduces the genetic predisposition to the condition.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Presence of esophageal rings or strictures on physical examination</t>
+          <t>Esophageal rings</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>These findings are highly specific for Eosinophilic esophagitis, as they are often seen in patients with this condition due to chronic inflammation.</t>
+          <t>Esophageal rings, also known as trachealization of the esophagus, are a classic finding in eosinophilic esophagitis and are rarely seen in other conditions.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal vital signs during examination</t>
+          <t>Normal esophageal appearance</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal vitals suggest that there is no acute distress or systemic involvement, which is less common in Eosinophilic esophagitis.</t>
+          <t>A normal esophageal appearance on physical examination is unlikely in eosinophilic esophagitis, which typically presents with visible changes.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Signs of atopy such as eczema or allergic rhinitis</t>
+          <t>Linear furrows</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Atopy is commonly associated with Eosinophilic esophagitis, and the presence of these signs increases the likelihood of the diagnosis.</t>
+          <t>Linear furrows in the esophagus are indicative of eosinophilic esophagitis and are not commonly found in other esophageal conditions.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of abdominal tenderness or distension</t>
+          <t>Absence of esophageal rings</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The lack of abdominal symptoms may indicate that there is no significant gastrointestinal pathology, making Eosinophilic esophagitis less likely.</t>
+          <t>The absence of esophageal rings, which are commonly seen in eosinophilic esophagitis, suggests the condition may not be present.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing) reported during the physical exam</t>
+          <t>White exudates</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dysphagia is a common symptom in Eosinophilic esophagitis, and its presence strongly supports the diagnosis.</t>
+          <t>White exudates or plaques in the esophagus are suggestive of eosinophilic esophagitis and are less commonly associated with other esophageal disorders.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No signs of dehydration or malnutrition</t>
+          <t>Absence of linear furrows</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>These findings suggest that the patient is maintaining adequate nutrition and hydration, which is less common in those with Eosinophilic esophagitis.</t>
+          <t>Without linear furrows, which are characteristic of eosinophilic esophagitis, the likelihood of this diagnosis decreases.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Food impaction during examination</t>
+          <t>Narrow-caliber esophagus</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Food impaction is a frequent complication of Eosinophilic esophagitis, indicating a higher likelihood of the condition.</t>
+          <t>A narrow-caliber esophagus is often seen in eosinophilic esophagitis due to chronic inflammation and fibrosis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal oral cavity examination</t>
+          <t>Absence of white exudates</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A normal oral examination indicates no signs of oral allergy syndrome, which can be associated with Eosinophilic esophagitis.</t>
+          <t>The lack of white exudates, often seen in eosinophilic esophagitis, argues against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Weight loss or failure to thrive in pediatric patients</t>
+          <t>Crepe paper mucosa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>These findings can indicate chronic esophageal issues, which are often seen in Eosinophilic esophagitis, especially in children.</t>
+          <t>Crepe paper mucosa, which refers to the fragility of the esophageal lining, is a finding that supports eosinophilic esophagitis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No respiratory distress or wheezing</t>
+          <t>Normal esophageal caliber</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of respiratory symptoms suggests that there is no associated allergic reaction, which can be seen in Eosinophilic esophagitis.</t>
+          <t>A normal esophageal caliber, without narrowing, is less consistent with eosinophilic esophagitis.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Elevated eosinophil count in esophageal biopsy</t>
+          <t>Esophageal biopsy showing &gt;15 eosinophils per high power field</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A high eosinophil count in esophageal tissue is a hallmark of Eosinophilic esophagitis, indicating an inflammatory response specific to this condition.</t>
+          <t>This is the hallmark histological finding for Eosinophilic esophagitis, indicating eosinophilic infiltration.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal eosinophil count in peripheral blood</t>
+          <t>Normal esophageal biopsy</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A normal eosinophil count in the blood suggests that there is no systemic allergic response, which is less consistent with Eosinophilic esophagitis.</t>
+          <t>A normal biopsy with no eosinophilic infiltration strongly suggests the absence of Eosinophilic esophagitis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Presence of eosinophils in esophageal mucosa on histology</t>
+          <t>Endoscopic appearance of esophageal rings</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Histological examination showing eosinophils in the esophageal mucosa supports the diagnosis, as this is a key diagnostic criterion.</t>
+          <t>The presence of esophageal rings, also known as trachealization, is commonly associated with Eosinophilic esophagitis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Negative allergy testing for common food allergens</t>
+          <t>Normal endoscopic findings</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Negative results on allergy tests indicate that food allergies, which can trigger Eosinophilic esophagitis, are unlikely.</t>
+          <t>The absence of rings, furrows, exudates, or strictures on endoscopy makes Eosinophilic esophagitis less likely.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Endoscopic findings of esophageal rings or strictures</t>
+          <t>Endoscopic appearance of linear furrows</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Endoscopic visualization of characteristic rings or strictures in the esophagus is often associated with Eosinophilic esophagitis.</t>
+          <t>Linear furrows are a characteristic endoscopic finding in Eosinophilic esophagitis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absence of esophageal symptoms</t>
+          <t>Negative allergy testing for common food allergens</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lack of symptoms such as dysphagia or food impaction makes Eosinophilic esophagitis less likely.</t>
+          <t>While not definitive, negative allergy tests can reduce the likelihood of Eosinophilic esophagitis, which is often associated with food allergies.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Response to dietary elimination therapy</t>
+          <t>Endoscopic appearance of white exudates or plaques</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Improvement of symptoms following dietary changes supports the diagnosis, as Eosinophilic esophagitis is often triggered by food allergens.</t>
+          <t>White exudates or plaques are indicative of eosinophilic inflammation in the esophagus.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal endoscopic findings</t>
+          <t>Normal esophageal pH monitoring</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal findings during endoscopy would suggest that there are no structural changes associated with Eosinophilic esophagitis.</t>
+          <t>Normal pH monitoring suggests that symptoms may not be due to acid reflux, which can mimic Eosinophilic esophagitis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Elevated serum IgE levels</t>
+          <t>Endoscopic appearance of esophageal strictures</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Increased serum IgE can indicate an allergic response, which is commonly associated with Eosinophilic esophagitis.</t>
+          <t>Strictures are a result of chronic inflammation and remodeling in Eosinophilic esophagitis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No response to proton pump inhibitors</t>
+          <t>Negative response to proton pump inhibitor (PPI) trial</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Failure to respond to proton pump inhibitors, which can alleviate symptoms of esophageal inflammation, suggests that Eosinophilic esophagitis may not be present.</t>
+          <t>A lack of response to PPI therapy can suggest that symptoms are not due to acid-related esophageal inflammation, which can overlap with Eosinophilic esophagitis.</t>
         </is>
       </c>
     </row>
